--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_11.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_24_11.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-911445.9425176606</v>
+        <v>-914002.2583449106</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673435</v>
+        <v>603248.4937673432</v>
       </c>
     </row>
     <row r="9">
@@ -656,7 +656,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>389.5684993145367</v>
       </c>
       <c r="G2" t="n">
         <v>410.9217256534534</v>
       </c>
       <c r="H2" t="n">
-        <v>12.27635063436516</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,10 +707,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U2" t="n">
         <v>250.995171958902</v>
@@ -719,7 +719,7 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
@@ -753,7 +753,7 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H3" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851095</v>
       </c>
       <c r="I3" t="n">
         <v>18.81721868247742</v>
@@ -783,7 +783,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>0.1429098734093895</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S3" t="n">
         <v>128.1435076414547</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>127.3385186497852</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>142.4766448433866</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -865,19 +865,19 @@
         <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>189.7690253314419</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X4" t="n">
         <v>0</v>
@@ -905,16 +905,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G5" t="n">
-        <v>105.6823431051929</v>
+        <v>10.92172565345345</v>
       </c>
       <c r="H5" t="n">
         <v>294.6077643873205</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,25 +944,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>109.1877617881758</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>203.9179701396201</v>
       </c>
       <c r="U5" t="n">
         <v>250.995171958902</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>386.2379386560536</v>
+        <v>74.55828483826151</v>
       </c>
     </row>
     <row r="6">
@@ -1051,10 +1051,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
         <v>148.6154730182124</v>
@@ -1063,16 +1063,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>112.6481021990958</v>
       </c>
       <c r="G7" t="n">
         <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>107.3504831369566</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>96.35242040983809</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1105,7 +1105,7 @@
         <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
@@ -1120,7 +1120,7 @@
         <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -1133,7 +1133,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
@@ -1142,7 +1142,7 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>6.876045741711437</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G8" t="n">
         <v>410.9217256534534</v>
@@ -1151,7 +1151,7 @@
         <v>294.6077643873205</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1190,16 +1190,16 @@
         <v>250.995171958902</v>
       </c>
       <c r="V8" t="n">
-        <v>327.7522584701349</v>
+        <v>165.676416698699</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>258.5360411164452</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,22 +1291,22 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>144.7550149143208</v>
+        <v>0</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1342,19 +1342,19 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>97.01188539214105</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>189.6721656321511</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1379,7 +1379,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F11" t="n">
-        <v>406.8760457417114</v>
+        <v>406.8760457417101</v>
       </c>
       <c r="G11" t="n">
         <v>409.8033385187866</v>
@@ -1525,7 +1525,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>65.67353929277157</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
         <v>167.2468210986278</v>
@@ -1546,7 +1546,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I13" t="n">
-        <v>81.26583631856553</v>
+        <v>12.96996784159866</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1576,10 +1576,10 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U13" t="n">
         <v>286.1844743892441</v>
@@ -1591,10 +1591,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X13" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,7 +1604,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C14" t="n">
         <v>365.2728917710076</v>
@@ -1673,7 +1673,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y14" t="n">
-        <v>386.2379386560536</v>
+        <v>386.2379386560522</v>
       </c>
     </row>
     <row r="15">
@@ -1774,13 +1774,13 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>106.5290632934498</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -1819,16 +1819,16 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U16" t="n">
-        <v>286.1844743892441</v>
+        <v>80.56978887874359</v>
       </c>
       <c r="V16" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W16" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X16" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y16" t="n">
         <v>218.5846533520948</v>
@@ -2002,25 +2002,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
-        <v>24.27150084979029</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>165.5241382922688</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="H19" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2053,7 +2053,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>217.4054503272883</v>
       </c>
       <c r="U19" t="n">
         <v>286.1844743892441</v>
@@ -2068,7 +2068,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="20">
@@ -2129,7 +2129,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T20" t="n">
         <v>199.0222304576161</v>
@@ -2242,19 +2242,19 @@
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.8253826161909023</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S22" t="n">
         <v>181.0262860016446</v>
       </c>
       <c r="T22" t="n">
-        <v>217.4054503272883</v>
+        <v>160.1763464053459</v>
       </c>
       <c r="U22" t="n">
         <v>286.1844743892441</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2482,19 +2482,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E25" t="n">
-        <v>41.55695577161244</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
         <v>165.5241382922688</v>
       </c>
       <c r="H25" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2524,13 +2524,13 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T25" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U25" t="n">
-        <v>286.1844743892441</v>
+        <v>60.32297266393831</v>
       </c>
       <c r="V25" t="n">
         <v>252.137643323828</v>
@@ -2713,13 +2713,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D28" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,7 +2728,7 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
-        <v>21.63824106824953</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>0</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S28" t="n">
-        <v>181.0262860016446</v>
+        <v>123.7971820797026</v>
       </c>
       <c r="T28" t="n">
         <v>217.4054503272883</v>
@@ -2801,7 +2801,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F29" t="n">
-        <v>406.8760457417109</v>
+        <v>406.8760457417114</v>
       </c>
       <c r="G29" t="n">
         <v>409.8033385187866</v>
@@ -2947,19 +2947,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G31" t="n">
         <v>165.5241382922688</v>
@@ -2968,7 +2968,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -2998,13 +2998,13 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>108.9065924712588</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T31" t="n">
         <v>217.4054503272883</v>
       </c>
       <c r="U31" t="n">
-        <v>286.1844743892441</v>
+        <v>34.69211367164815</v>
       </c>
       <c r="V31" t="n">
         <v>252.137643323828</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187852</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3184,16 +3184,16 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>155.5473326898976</v>
+        <v>155.547332689898</v>
       </c>
       <c r="C34" t="n">
         <v>142.9621736065881</v>
       </c>
       <c r="D34" t="n">
-        <v>124.3308255261734</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E34" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F34" t="n">
         <v>121.1364005308915</v>
@@ -3202,10 +3202,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H34" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I34" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S34" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T34" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U34" t="n">
         <v>261.8998268972044</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T35" t="n">
         <v>199.0222304576161</v>
@@ -3430,19 +3430,19 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E37" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F37" t="n">
-        <v>121.1364005308915</v>
+        <v>121.1364005308918</v>
       </c>
       <c r="G37" t="n">
         <v>141.2394908002291</v>
       </c>
       <c r="H37" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I37" t="n">
-        <v>56.98118882652579</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>42.09059921808195</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S37" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T37" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U37" t="n">
         <v>261.8998268972044</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>83.70251495695528</v>
+        <v>83.7025149569553</v>
       </c>
       <c r="T38" t="n">
         <v>199.0222304576161</v>
@@ -3661,25 +3661,25 @@
         <v>155.5473326898976</v>
       </c>
       <c r="C40" t="n">
-        <v>142.9621736065882</v>
+        <v>142.9621736065881</v>
       </c>
       <c r="D40" t="n">
-        <v>124.3308255261727</v>
+        <v>124.3308255261726</v>
       </c>
       <c r="E40" t="n">
         <v>122.1493151545295</v>
       </c>
       <c r="F40" t="n">
-        <v>121.1364005308916</v>
+        <v>121.1364005308915</v>
       </c>
       <c r="G40" t="n">
-        <v>141.2394908002292</v>
+        <v>141.2394908002291</v>
       </c>
       <c r="H40" t="n">
         <v>116.0100653541842</v>
       </c>
       <c r="I40" t="n">
-        <v>56.98118882652585</v>
+        <v>56.98118882652583</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>42.090599218082</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S40" t="n">
         <v>156.7416385096049</v>
@@ -3724,7 +3724,7 @@
         <v>262.2383508445513</v>
       </c>
       <c r="X40" t="n">
-        <v>201.4250078969975</v>
+        <v>201.4250078969974</v>
       </c>
       <c r="Y40" t="n">
         <v>194.3000058600551</v>
@@ -3755,7 +3755,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H41" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444123</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3904,7 +3904,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E43" t="n">
-        <v>122.1493151545294</v>
+        <v>122.1493151545295</v>
       </c>
       <c r="F43" t="n">
         <v>121.1364005308915</v>
@@ -3913,10 +3913,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H43" t="n">
-        <v>116.0100653541841</v>
+        <v>116.0100653541842</v>
       </c>
       <c r="I43" t="n">
-        <v>56.98118882652578</v>
+        <v>56.98118882652582</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,13 +3943,13 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>42.09059921808193</v>
+        <v>42.09059921808198</v>
       </c>
       <c r="S43" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T43" t="n">
-        <v>193.1208028352485</v>
+        <v>193.1208028352486</v>
       </c>
       <c r="U43" t="n">
         <v>261.8998268972044</v>
@@ -3958,7 +3958,7 @@
         <v>227.8529958317883</v>
       </c>
       <c r="W43" t="n">
-        <v>262.2383508445512</v>
+        <v>262.2383508445513</v>
       </c>
       <c r="X43" t="n">
         <v>201.4250078969974</v>
@@ -4141,7 +4141,7 @@
         <v>124.3308255261726</v>
       </c>
       <c r="E46" t="n">
-        <v>122.1493151545295</v>
+        <v>122.1493151545294</v>
       </c>
       <c r="F46" t="n">
         <v>121.1364005308915</v>
@@ -4150,10 +4150,10 @@
         <v>141.2394908002291</v>
       </c>
       <c r="H46" t="n">
-        <v>116.0100653541842</v>
+        <v>116.0100653541841</v>
       </c>
       <c r="I46" t="n">
-        <v>56.98118882652582</v>
+        <v>56.98118882652579</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>42.09059921808198</v>
+        <v>42.09059921808195</v>
       </c>
       <c r="S46" t="n">
         <v>156.7416385096049</v>
       </c>
       <c r="T46" t="n">
-        <v>193.1208028352486</v>
+        <v>193.1208028352485</v>
       </c>
       <c r="U46" t="n">
         <v>261.8998268972044</v>
@@ -4304,40 +4304,40 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1238.038871968308</v>
+        <v>1661.138951213861</v>
       </c>
       <c r="C2" t="n">
-        <v>1238.038871968308</v>
+        <v>1661.138951213861</v>
       </c>
       <c r="D2" t="n">
-        <v>879.7731733615576</v>
+        <v>1302.873252607111</v>
       </c>
       <c r="E2" t="n">
-        <v>493.9849207633134</v>
+        <v>917.0850000088665</v>
       </c>
       <c r="F2" t="n">
-        <v>493.9849207633134</v>
+        <v>523.5814653477182</v>
       </c>
       <c r="G2" t="n">
-        <v>78.91247060830983</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="H2" t="n">
-        <v>66.5121164321834</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I2" t="n">
         <v>66.5121164321834</v>
       </c>
       <c r="J2" t="n">
-        <v>255.3912473912088</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K2" t="n">
         <v>589.2106210810553</v>
       </c>
       <c r="L2" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M2" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N2" t="n">
         <v>2120.555556060171</v>
@@ -4355,25 +4355,25 @@
         <v>3325.60582160917</v>
       </c>
       <c r="S2" t="n">
-        <v>3325.60582160917</v>
+        <v>3215.315153136265</v>
       </c>
       <c r="T2" t="n">
-        <v>3325.60582160917</v>
+        <v>3009.337405520487</v>
       </c>
       <c r="U2" t="n">
-        <v>3072.075344883006</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V2" t="n">
-        <v>2741.012457539436</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="W2" t="n">
-        <v>2388.243802269321</v>
+        <v>2424.744041450753</v>
       </c>
       <c r="X2" t="n">
-        <v>2014.778044008242</v>
+        <v>2051.278283189673</v>
       </c>
       <c r="Y2" t="n">
-        <v>1624.63871203243</v>
+        <v>1661.138951213861</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1702.096133556938</v>
+        <v>941.5438544811084</v>
       </c>
       <c r="C3" t="n">
-        <v>1527.643104275811</v>
+        <v>767.0908251999814</v>
       </c>
       <c r="D3" t="n">
-        <v>1378.708694614559</v>
+        <v>618.1564155387301</v>
       </c>
       <c r="E3" t="n">
-        <v>1219.471239609104</v>
+        <v>458.9189605332746</v>
       </c>
       <c r="F3" t="n">
-        <v>1072.936681635989</v>
+        <v>312.3844025601596</v>
       </c>
       <c r="G3" t="n">
-        <v>936.573581468607</v>
+        <v>176.0213023927777</v>
       </c>
       <c r="H3" t="n">
-        <v>846.0716871064745</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I3" t="n">
-        <v>827.0643955080125</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J3" t="n">
-        <v>920.7416649986299</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K3" t="n">
-        <v>1159.005863978977</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L3" t="n">
-        <v>1525.704024291642</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M3" t="n">
-        <v>1972.980349513958</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N3" t="n">
-        <v>2446.503393068413</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O3" t="n">
-        <v>2857.464672486467</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P3" t="n">
-        <v>3167.96426396257</v>
+        <v>2407.411984886741</v>
       </c>
       <c r="Q3" t="n">
-        <v>3325.60582160917</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R3" t="n">
-        <v>3325.461468201686</v>
+        <v>2564.909189125856</v>
       </c>
       <c r="S3" t="n">
-        <v>3196.023581695166</v>
+        <v>2435.471302619336</v>
       </c>
       <c r="T3" t="n">
-        <v>3003.380581373021</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U3" t="n">
-        <v>2775.312734507437</v>
+        <v>2014.760455431607</v>
       </c>
       <c r="V3" t="n">
-        <v>2540.160626275694</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W3" t="n">
-        <v>2285.923269547493</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X3" t="n">
-        <v>2078.07176934196</v>
+        <v>1317.51949026613</v>
       </c>
       <c r="Y3" t="n">
-        <v>1870.311470577006</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="4">
@@ -4462,19 +4462,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>195.1368827450977</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="C4" t="n">
-        <v>66.5121164321834</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="D4" t="n">
-        <v>66.5121164321834</v>
+        <v>357.3178668022015</v>
       </c>
       <c r="E4" t="n">
-        <v>66.5121164321834</v>
+        <v>357.3178668022015</v>
       </c>
       <c r="F4" t="n">
-        <v>66.5121164321834</v>
+        <v>210.4279193042911</v>
       </c>
       <c r="G4" t="n">
         <v>66.5121164321834</v>
@@ -4513,25 +4513,25 @@
         <v>920.8870058181849</v>
       </c>
       <c r="S4" t="n">
-        <v>920.8870058181849</v>
+        <v>729.2011216450112</v>
       </c>
       <c r="T4" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="U4" t="n">
-        <v>920.8870058181849</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="V4" t="n">
-        <v>666.202517612298</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="W4" t="n">
-        <v>376.7853475753374</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="X4" t="n">
-        <v>376.7853475753374</v>
+        <v>507.4345062145372</v>
       </c>
       <c r="Y4" t="n">
-        <v>376.7853475753374</v>
+        <v>507.4345062145372</v>
       </c>
     </row>
     <row r="5">
@@ -4541,25 +4541,25 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1590.807527238423</v>
+        <v>1941.127034633561</v>
       </c>
       <c r="C5" t="n">
-        <v>1221.845010298011</v>
+        <v>1572.164517693149</v>
       </c>
       <c r="D5" t="n">
-        <v>863.5793116912607</v>
+        <v>1213.898819086399</v>
       </c>
       <c r="E5" t="n">
-        <v>477.7910590930165</v>
+        <v>828.1105664881545</v>
       </c>
       <c r="F5" t="n">
-        <v>470.845558343813</v>
+        <v>417.1246616985469</v>
       </c>
       <c r="G5" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H5" t="n">
-        <v>66.51211643218342</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I5" t="n">
         <v>66.51211643218342</v>
@@ -4568,13 +4568,13 @@
         <v>255.3912473912089</v>
       </c>
       <c r="K5" t="n">
-        <v>589.2106210810554</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L5" t="n">
         <v>1040.244834329464</v>
       </c>
       <c r="M5" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N5" t="n">
         <v>2120.555556060171</v>
@@ -4592,25 +4592,25 @@
         <v>3325.605821609171</v>
       </c>
       <c r="S5" t="n">
-        <v>3325.605821609171</v>
+        <v>3215.315153136266</v>
       </c>
       <c r="T5" t="n">
-        <v>3325.605821609171</v>
+        <v>3009.337405520488</v>
       </c>
       <c r="U5" t="n">
-        <v>3072.075344883007</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="V5" t="n">
-        <v>2741.012457539436</v>
+        <v>2755.806928794324</v>
       </c>
       <c r="W5" t="n">
-        <v>2741.012457539436</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="X5" t="n">
-        <v>2367.546699278356</v>
+        <v>2403.03827352421</v>
       </c>
       <c r="Y5" t="n">
-        <v>1977.407367302545</v>
+        <v>2327.726874697683</v>
       </c>
     </row>
     <row r="6">
@@ -4635,16 +4635,16 @@
         <v>312.3844025601595</v>
       </c>
       <c r="G6" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H6" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064537</v>
       </c>
       <c r="I6" t="n">
-        <v>66.5121164321834</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J6" t="n">
-        <v>160.1893859228007</v>
+        <v>160.189385922801</v>
       </c>
       <c r="K6" t="n">
         <v>398.4535849031479</v>
@@ -4699,25 +4699,25 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>739.2385409879452</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="C7" t="n">
-        <v>570.3023580600383</v>
+        <v>478.3278112441808</v>
       </c>
       <c r="D7" t="n">
-        <v>420.1857186477025</v>
+        <v>328.211171831845</v>
       </c>
       <c r="E7" t="n">
-        <v>272.2726250653094</v>
+        <v>180.2980782494519</v>
       </c>
       <c r="F7" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G7" t="n">
-        <v>272.2726250653094</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H7" t="n">
-        <v>163.8377936138381</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I7" t="n">
         <v>66.51211643218342</v>
@@ -4753,22 +4753,22 @@
         <v>920.8870058181849</v>
       </c>
       <c r="T7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="U7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="V7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="W7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="X7" t="n">
-        <v>920.8870058181849</v>
+        <v>699.1203903877109</v>
       </c>
       <c r="Y7" t="n">
-        <v>920.8870058181849</v>
+        <v>478.3278112441808</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1144.379366334374</v>
+        <v>1959.379186075721</v>
       </c>
       <c r="C8" t="n">
-        <v>1144.379366334374</v>
+        <v>1590.416669135309</v>
       </c>
       <c r="D8" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="E8" t="n">
-        <v>786.1136677276232</v>
+        <v>1232.150970528558</v>
       </c>
       <c r="F8" t="n">
-        <v>779.1681669784198</v>
+        <v>821.1650657389509</v>
       </c>
       <c r="G8" t="n">
-        <v>364.0957168234162</v>
+        <v>406.0926155839475</v>
       </c>
       <c r="H8" t="n">
-        <v>66.51211643218343</v>
+        <v>108.5090151927147</v>
       </c>
       <c r="I8" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J8" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912089</v>
       </c>
       <c r="K8" t="n">
-        <v>589.2106210810562</v>
+        <v>589.2106210810553</v>
       </c>
       <c r="L8" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M8" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N8" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O8" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P8" t="n">
-        <v>3018.302393296687</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q8" t="n">
-        <v>3266.588755052369</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S8" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="T8" t="n">
-        <v>3119.628073993394</v>
+        <v>3119.628073993392</v>
       </c>
       <c r="U8" t="n">
-        <v>2866.09759726723</v>
+        <v>2866.097597267229</v>
       </c>
       <c r="V8" t="n">
-        <v>2535.034709923659</v>
+        <v>2698.747681409957</v>
       </c>
       <c r="W8" t="n">
-        <v>2182.266054653545</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="X8" t="n">
-        <v>1921.118538374307</v>
+        <v>2345.979026139843</v>
       </c>
       <c r="Y8" t="n">
-        <v>1530.979206398496</v>
+        <v>2345.979026139843</v>
       </c>
     </row>
     <row r="9">
@@ -4857,28 +4857,28 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C9" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D9" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E9" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F9" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G9" t="n">
-        <v>176.0213023927781</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H9" t="n">
-        <v>85.51940803064554</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I9" t="n">
-        <v>66.51211643218342</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J9" t="n">
         <v>160.1893859228007</v>
@@ -4887,7 +4887,7 @@
         <v>398.4535849031479</v>
       </c>
       <c r="L9" t="n">
-        <v>765.1517452158131</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M9" t="n">
         <v>1212.428070438129</v>
@@ -4914,7 +4914,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U9" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V9" t="n">
         <v>1779.608347199865</v>
@@ -4923,10 +4923,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X9" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y9" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>507.5323442946291</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="C10" t="n">
-        <v>507.5323442946291</v>
+        <v>364.5418494269122</v>
       </c>
       <c r="D10" t="n">
-        <v>507.5323442946291</v>
+        <v>214.4252100145765</v>
       </c>
       <c r="E10" t="n">
-        <v>359.619250712236</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="F10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="G10" t="n">
-        <v>212.7293032143257</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="H10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="I10" t="n">
-        <v>66.51211643218343</v>
+        <v>66.5121164321834</v>
       </c>
       <c r="J10" t="n">
-        <v>78.33486996962289</v>
+        <v>78.33486996962286</v>
       </c>
       <c r="K10" t="n">
-        <v>176.6457242372933</v>
+        <v>176.6457242372932</v>
       </c>
       <c r="L10" t="n">
         <v>332.3555681596505</v>
       </c>
       <c r="M10" t="n">
-        <v>499.7880494588484</v>
+        <v>499.7880494588483</v>
       </c>
       <c r="N10" t="n">
-        <v>671.0968864886959</v>
+        <v>671.0968864886958</v>
       </c>
       <c r="O10" t="n">
-        <v>809.0152357068856</v>
+        <v>809.0152357068855</v>
       </c>
       <c r="P10" t="n">
-        <v>907.9662384596443</v>
+        <v>907.9662384596442</v>
       </c>
       <c r="Q10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="R10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="S10" t="n">
-        <v>920.887005818185</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="T10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="U10" t="n">
-        <v>699.120390387711</v>
+        <v>920.8870058181849</v>
       </c>
       <c r="V10" t="n">
-        <v>699.120390387711</v>
+        <v>822.8952023917798</v>
       </c>
       <c r="W10" t="n">
-        <v>699.120390387711</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="X10" t="n">
-        <v>507.5323442946291</v>
+        <v>533.4780323548191</v>
       </c>
       <c r="Y10" t="n">
-        <v>507.5323442946291</v>
+        <v>533.4780323548191</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F11" t="n">
         <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192571</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111712</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O11" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P11" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R11" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="12">
@@ -5112,31 +5112,31 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J12" t="n">
-        <v>119.290296770379</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K12" t="n">
-        <v>119.290296770379</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L12" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M12" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N12" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O12" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P12" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>1098.667160263527</v>
+        <v>1029.681434529216</v>
       </c>
       <c r="C13" t="n">
-        <v>929.7309773356195</v>
+        <v>860.7452516013095</v>
       </c>
       <c r="D13" t="n">
-        <v>779.6143379232838</v>
+        <v>710.6286121889738</v>
       </c>
       <c r="E13" t="n">
-        <v>631.7012443408906</v>
+        <v>562.7155186065806</v>
       </c>
       <c r="F13" t="n">
-        <v>484.8112968429803</v>
+        <v>415.8255711086703</v>
       </c>
       <c r="G13" t="n">
-        <v>317.6151975578602</v>
+        <v>248.6294718235502</v>
       </c>
       <c r="H13" t="n">
-        <v>175.9033664000583</v>
+        <v>106.9176406657483</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782957</v>
@@ -5224,25 +5224,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S13" t="n">
-        <v>2446.96308358026</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T13" t="n">
-        <v>2446.96308358026</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U13" t="n">
-        <v>2157.887856924458</v>
+        <v>1755.431557602304</v>
       </c>
       <c r="V13" t="n">
-        <v>1903.203368718571</v>
+        <v>1500.747069396417</v>
       </c>
       <c r="W13" t="n">
-        <v>1613.786198681611</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="X13" t="n">
-        <v>1385.796647783593</v>
+        <v>1211.329899359456</v>
       </c>
       <c r="Y13" t="n">
-        <v>1165.004068640063</v>
+        <v>1211.329899359456</v>
       </c>
     </row>
     <row r="14">
@@ -5321,7 +5321,7 @@
         <v>3094.515198591807</v>
       </c>
       <c r="Y14" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="15">
@@ -5358,16 +5358,16 @@
         <v>245.2306927803937</v>
       </c>
       <c r="K15" t="n">
-        <v>280.8495004245706</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L15" t="n">
-        <v>776.1751066403293</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M15" t="n">
-        <v>1373.553594266881</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N15" t="n">
-        <v>2001.151557821488</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O15" t="n">
         <v>2553.061288060775</v>
@@ -5410,22 +5410,22 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>835.5837926935558</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C16" t="n">
-        <v>666.6476097656489</v>
+        <v>847.644273983533</v>
       </c>
       <c r="D16" t="n">
-        <v>516.5309703533131</v>
+        <v>697.5276345711973</v>
       </c>
       <c r="E16" t="n">
-        <v>368.61787677092</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F16" t="n">
-        <v>368.61787677092</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G16" t="n">
-        <v>201.4217774858</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H16" t="n">
         <v>93.81666304797186</v>
@@ -5437,49 +5437,49 @@
         <v>174.0526814782957</v>
       </c>
       <c r="K16" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038298</v>
       </c>
       <c r="L16" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797699</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.150240910809</v>
+        <v>1248.150240910805</v>
       </c>
       <c r="N16" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570813</v>
       </c>
       <c r="O16" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279798</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853361</v>
+        <v>2327.764848853356</v>
       </c>
       <c r="Q16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="R16" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580256</v>
       </c>
       <c r="S16" t="n">
-        <v>2264.108249235165</v>
+        <v>2264.10824923516</v>
       </c>
       <c r="T16" t="n">
-        <v>2044.506784258106</v>
+        <v>2044.506784258101</v>
       </c>
       <c r="U16" t="n">
-        <v>1755.431557602304</v>
+        <v>1963.123159128057</v>
       </c>
       <c r="V16" t="n">
-        <v>1755.431557602304</v>
+        <v>1708.43867092217</v>
       </c>
       <c r="W16" t="n">
-        <v>1466.014387565343</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="X16" t="n">
-        <v>1238.024836667326</v>
+        <v>1419.02150088521</v>
       </c>
       <c r="Y16" t="n">
-        <v>1017.232257523796</v>
+        <v>1198.22892174168</v>
       </c>
     </row>
     <row r="17">
@@ -5510,25 +5510,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192616</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075809</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M17" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N17" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O17" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P17" t="n">
         <v>4194.413870694707</v>
@@ -5589,28 +5589,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I18" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J18" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q18" t="n">
         <v>2553.061288060775</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>954.2476448606602</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C19" t="n">
-        <v>929.7309773356195</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D19" t="n">
-        <v>779.6143379232838</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E19" t="n">
-        <v>631.7012443408906</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="F19" t="n">
-        <v>484.8112968429803</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H19" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I19" t="n">
         <v>93.81666304797187</v>
@@ -5701,22 +5701,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T19" t="n">
-        <v>2197.062545487567</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U19" t="n">
-        <v>1907.987318831765</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V19" t="n">
-        <v>1653.302830625878</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W19" t="n">
-        <v>1363.885660588917</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X19" t="n">
-        <v>1135.8961096909</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y19" t="n">
-        <v>1135.8961096909</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="20">
@@ -5738,10 +5738,10 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F20" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G20" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H20" t="n">
         <v>93.81666304797187</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,31 +5826,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1318.79311422913</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O21" t="n">
-        <v>1870.702844468417</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P21" t="n">
-        <v>2294.325993963485</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q21" t="n">
-        <v>2527.587654338368</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R21" t="n">
         <v>2553.061288060775</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C22" t="n">
-        <v>411.9631215597619</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D22" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E22" t="n">
-        <v>261.8464821474262</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F22" t="n">
-        <v>261.0127623330919</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G22" t="n">
-        <v>93.81666304797187</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5932,28 +5932,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R22" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S22" t="n">
-        <v>2264.108249235165</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T22" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U22" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V22" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W22" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X22" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y22" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004714</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F23" t="n">
-        <v>793.773653616862</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G23" t="n">
         <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192602</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111726</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075817</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L23" t="n">
         <v>1478.611553332387</v>
@@ -6005,34 +6005,34 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P23" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q23" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R23" t="n">
-        <v>4690.833152398594</v>
+        <v>4690.833152398593</v>
       </c>
       <c r="S23" t="n">
-        <v>4606.285157492579</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T23" t="n">
-        <v>4405.252601474785</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466574</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="24">
@@ -6063,25 +6063,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I24" t="n">
-        <v>95.58405025273905</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J24" t="n">
-        <v>245.2306927803938</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K24" t="n">
-        <v>579.1554649516144</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L24" t="n">
         <v>1074.481071167373</v>
       </c>
       <c r="M24" t="n">
-        <v>1074.481071167373</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N24" t="n">
-        <v>1702.07903472198</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O24" t="n">
-        <v>2253.988764961267</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P24" t="n">
         <v>2553.061288060775</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>763.7541388327652</v>
+        <v>809.0422355233313</v>
       </c>
       <c r="C25" t="n">
-        <v>594.8179559048583</v>
+        <v>640.1060525954244</v>
       </c>
       <c r="D25" t="n">
-        <v>444.7013164925226</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908938</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908938</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782958</v>
+        <v>174.0526814782957</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038345</v>
+        <v>435.7419440038343</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797747</v>
+        <v>826.1405381797745</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570818</v>
+        <v>1665.560112570817</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279803</v>
+        <v>2035.089393279802</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="R25" t="n">
-        <v>2446.963083580261</v>
+        <v>2446.96308358026</v>
       </c>
       <c r="S25" t="n">
-        <v>2446.963083580261</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T25" t="n">
-        <v>2227.361618603202</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U25" t="n">
-        <v>1938.2863919474</v>
+        <v>1983.574488637966</v>
       </c>
       <c r="V25" t="n">
-        <v>1683.601903741513</v>
+        <v>1728.890000432079</v>
       </c>
       <c r="W25" t="n">
-        <v>1394.184733704552</v>
+        <v>1439.472830395119</v>
       </c>
       <c r="X25" t="n">
-        <v>1166.195182806535</v>
+        <v>1211.483279497101</v>
       </c>
       <c r="Y25" t="n">
-        <v>945.4026036630049</v>
+        <v>990.6907003535711</v>
       </c>
     </row>
     <row r="26">
@@ -6224,19 +6224,19 @@
         <v>95.34095638192593</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K26" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L26" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N26" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O26" t="n">
         <v>3640.42229106801</v>
@@ -6300,31 +6300,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P27" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q27" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R27" t="n">
         <v>2553.061288060775</v>
@@ -6358,22 +6358,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>580.8993044876688</v>
+        <v>571.6607764188008</v>
       </c>
       <c r="C28" t="n">
-        <v>580.8993044876688</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="D28" t="n">
-        <v>430.7826650753331</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="E28" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="F28" t="n">
-        <v>282.8695714929399</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G28" t="n">
-        <v>115.6734722078199</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
         <v>93.81666304797187</v>
@@ -6406,28 +6406,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R28" t="n">
-        <v>2446.96308358026</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S28" t="n">
-        <v>2264.108249235165</v>
+        <v>2254.869721166297</v>
       </c>
       <c r="T28" t="n">
-        <v>2044.506784258106</v>
+        <v>2035.268256189238</v>
       </c>
       <c r="U28" t="n">
-        <v>1755.431557602304</v>
+        <v>1746.193029533436</v>
       </c>
       <c r="V28" t="n">
-        <v>1500.747069396417</v>
+        <v>1491.508541327549</v>
       </c>
       <c r="W28" t="n">
-        <v>1211.329899359456</v>
+        <v>1202.091371290588</v>
       </c>
       <c r="X28" t="n">
-        <v>983.3403484614387</v>
+        <v>974.1018203925706</v>
       </c>
       <c r="Y28" t="n">
-        <v>762.5477693179085</v>
+        <v>753.3092412490405</v>
       </c>
     </row>
     <row r="29">
@@ -6443,10 +6443,10 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
         <v>793.7736536168611</v>
@@ -6458,13 +6458,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192593</v>
+        <v>95.3409563819265</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111712</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K29" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L29" t="n">
         <v>1478.611553332387</v>
@@ -6479,7 +6479,7 @@
         <v>3640.42229106801</v>
       </c>
       <c r="P29" t="n">
-        <v>4194.413870694708</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q29" t="n">
         <v>4562.265728852255</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>653.7474797708871</v>
+        <v>1016.58045691144</v>
       </c>
       <c r="C31" t="n">
-        <v>484.8112968429803</v>
+        <v>847.6442739835331</v>
       </c>
       <c r="D31" t="n">
-        <v>484.8112968429803</v>
+        <v>697.5276345711974</v>
       </c>
       <c r="E31" t="n">
-        <v>484.8112968429803</v>
+        <v>549.6145409888043</v>
       </c>
       <c r="F31" t="n">
-        <v>484.8112968429803</v>
+        <v>402.7245934908939</v>
       </c>
       <c r="G31" t="n">
-        <v>317.6151975578602</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="H31" t="n">
-        <v>175.9033664000583</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6646,25 +6646,25 @@
         <v>2446.96308358026</v>
       </c>
       <c r="S31" t="n">
-        <v>2336.956424518383</v>
+        <v>2264.108249235165</v>
       </c>
       <c r="T31" t="n">
-        <v>2117.354959541324</v>
+        <v>2044.506784258106</v>
       </c>
       <c r="U31" t="n">
-        <v>1828.279732885522</v>
+        <v>2009.464245195835</v>
       </c>
       <c r="V31" t="n">
-        <v>1573.595244679635</v>
+        <v>1754.779756989948</v>
       </c>
       <c r="W31" t="n">
-        <v>1284.178074642674</v>
+        <v>1465.362586952987</v>
       </c>
       <c r="X31" t="n">
-        <v>1056.188523744657</v>
+        <v>1237.37303605497</v>
       </c>
       <c r="Y31" t="n">
-        <v>835.3959446011269</v>
+        <v>1016.58045691144</v>
       </c>
     </row>
     <row r="32">
@@ -6674,25 +6674,25 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406467</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168597</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G32" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I32" t="n">
         <v>95.34095638192599</v>
@@ -6707,43 +6707,43 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
         <v>4194.413870694707</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J33" t="n">
-        <v>93.81666304797186</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K33" t="n">
-        <v>93.81666304797186</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L33" t="n">
-        <v>93.81666304797186</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M33" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N33" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O33" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P33" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q33" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6832,19 +6832,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>926.957531531933</v>
+        <v>926.9575315319324</v>
       </c>
       <c r="C34" t="n">
-        <v>782.5512955656824</v>
+        <v>782.5512955656818</v>
       </c>
       <c r="D34" t="n">
-        <v>656.9646031150022</v>
+        <v>656.9646031150023</v>
       </c>
       <c r="E34" t="n">
-        <v>533.5814564942654</v>
+        <v>533.5814564942655</v>
       </c>
       <c r="F34" t="n">
-        <v>411.2214559580113</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G34" t="n">
         <v>268.5553036345476</v>
@@ -6853,16 +6853,16 @@
         <v>151.373419438402</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J34" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K34" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L34" t="n">
-        <v>898.2659412311325</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M34" t="n">
         <v>1344.317444979286</v>
@@ -6923,34 +6923,34 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G35" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H35" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
         <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L35" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O35" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P35" t="n">
         <v>4194.413870694707</v>
@@ -6971,13 +6971,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V35" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W35" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X35" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y35" t="n">
         <v>2704.375866615997</v>
@@ -7011,31 +7011,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J36" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K36" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L36" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M36" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N36" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O36" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P36" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q36" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R36" t="n">
         <v>2553.061288060775</v>
@@ -7069,37 +7069,37 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>926.9575315319319</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C37" t="n">
-        <v>782.5512955656812</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D37" t="n">
-        <v>656.9646031150019</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E37" t="n">
-        <v>533.581456494265</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F37" t="n">
-        <v>411.221455958011</v>
+        <v>411.2214559580114</v>
       </c>
       <c r="G37" t="n">
-        <v>268.5553036345473</v>
+        <v>268.5553036345476</v>
       </c>
       <c r="H37" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I37" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J37" t="n">
         <v>198.094482495415</v>
       </c>
       <c r="K37" t="n">
-        <v>483.8255460380724</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L37" t="n">
-        <v>898.2659412311318</v>
+        <v>898.2659412311323</v>
       </c>
       <c r="M37" t="n">
         <v>1344.317444979286</v>
@@ -7117,28 +7117,28 @@
         <v>2639.297491717215</v>
       </c>
       <c r="R37" t="n">
-        <v>2596.781734931273</v>
+        <v>2596.781734931274</v>
       </c>
       <c r="S37" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T37" t="n">
         <v>2243.385329532432</v>
       </c>
       <c r="U37" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V37" t="n">
-        <v>1748.685508594055</v>
+        <v>1748.685508594056</v>
       </c>
       <c r="W37" t="n">
-        <v>1483.79828551875</v>
+        <v>1483.798285518751</v>
       </c>
       <c r="X37" t="n">
-        <v>1280.338681582389</v>
+        <v>1280.33868158239</v>
       </c>
       <c r="Y37" t="n">
-        <v>1084.076049400515</v>
+        <v>1084.076049400516</v>
       </c>
     </row>
     <row r="38">
@@ -7160,31 +7160,31 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111717</v>
+        <v>378.192580311172</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L38" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M38" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N38" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O38" t="n">
         <v>3640.42229106801</v>
@@ -7208,13 +7208,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V38" t="n">
-        <v>3820.749612123003</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W38" t="n">
-        <v>3467.980956852889</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X38" t="n">
-        <v>3094.515198591809</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y38" t="n">
         <v>2704.375866615997</v>
@@ -7248,31 +7248,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I39" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J39" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M39" t="n">
-        <v>691.1951506745238</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,22 +7306,22 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C40" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D40" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150021</v>
       </c>
       <c r="E40" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942652</v>
       </c>
       <c r="F40" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580111</v>
       </c>
       <c r="G40" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345473</v>
       </c>
       <c r="H40" t="n">
         <v>151.373419438402</v>
@@ -7333,7 +7333,7 @@
         <v>198.094482495415</v>
       </c>
       <c r="K40" t="n">
-        <v>483.8255460380729</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L40" t="n">
         <v>898.2659412311323</v>
@@ -7348,7 +7348,7 @@
         <v>2179.340199382518</v>
       </c>
       <c r="P40" t="n">
-        <v>2496.057455973196</v>
+        <v>2496.057455973197</v>
       </c>
       <c r="Q40" t="n">
         <v>2639.297491717215</v>
@@ -7357,7 +7357,7 @@
         <v>2596.781734931274</v>
       </c>
       <c r="S40" t="n">
-        <v>2438.456847547834</v>
+        <v>2438.456847547835</v>
       </c>
       <c r="T40" t="n">
         <v>2243.385329532432</v>
@@ -7385,43 +7385,43 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G41" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362672</v>
       </c>
       <c r="H41" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I41" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075802</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
       </c>
       <c r="M41" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N41" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O41" t="n">
         <v>3640.42229106801</v>
@@ -7430,31 +7430,31 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q41" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R41" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S41" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T41" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7482,34 +7482,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H42" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I42" t="n">
-        <v>95.58405025273903</v>
+        <v>95.58405025273902</v>
       </c>
       <c r="J42" t="n">
-        <v>95.58405025273903</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K42" t="n">
-        <v>95.58405025273903</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L42" t="n">
-        <v>95.58405025273903</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P42" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q42" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R42" t="n">
         <v>2553.061288060775</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>926.9575315319323</v>
+        <v>926.9575315319328</v>
       </c>
       <c r="C43" t="n">
-        <v>782.5512955656817</v>
+        <v>782.5512955656822</v>
       </c>
       <c r="D43" t="n">
-        <v>656.9646031150023</v>
+        <v>656.9646031150027</v>
       </c>
       <c r="E43" t="n">
-        <v>533.5814564942655</v>
+        <v>533.5814564942658</v>
       </c>
       <c r="F43" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580117</v>
       </c>
       <c r="G43" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345479</v>
       </c>
       <c r="H43" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I43" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J43" t="n">
-        <v>198.094482495415</v>
+        <v>198.0944824954149</v>
       </c>
       <c r="K43" t="n">
-        <v>483.825546038073</v>
+        <v>483.8255460380728</v>
       </c>
       <c r="L43" t="n">
         <v>898.2659412311323</v>
@@ -7634,7 +7634,7 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G44" t="n">
         <v>379.8308874362686</v>
@@ -7643,7 +7643,7 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J44" t="n">
         <v>378.192580311172</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>589.1422692637306</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>1186.520756890282</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1814.118720444889</v>
+        <v>2299.457522348532</v>
       </c>
       <c r="O45" t="n">
-        <v>2366.028450684176</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P45" t="n">
         <v>2553.061288060775</v>
@@ -7780,31 +7780,31 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>926.9575315319325</v>
+        <v>926.9575315319322</v>
       </c>
       <c r="C46" t="n">
-        <v>782.5512955656819</v>
+        <v>782.5512955656816</v>
       </c>
       <c r="D46" t="n">
-        <v>656.9646031150024</v>
+        <v>656.9646031150022</v>
       </c>
       <c r="E46" t="n">
-        <v>533.5814564942656</v>
+        <v>533.5814564942654</v>
       </c>
       <c r="F46" t="n">
-        <v>411.2214559580115</v>
+        <v>411.2214559580113</v>
       </c>
       <c r="G46" t="n">
-        <v>268.5553036345477</v>
+        <v>268.5553036345475</v>
       </c>
       <c r="H46" t="n">
         <v>151.373419438402</v>
       </c>
       <c r="I46" t="n">
-        <v>93.81666304797189</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J46" t="n">
-        <v>198.0944824954149</v>
+        <v>198.094482495415</v>
       </c>
       <c r="K46" t="n">
         <v>483.8255460380728</v>
@@ -7816,19 +7816,19 @@
         <v>1344.317444979286</v>
       </c>
       <c r="N46" t="n">
-        <v>1785.769117656414</v>
+        <v>1785.769117656413</v>
       </c>
       <c r="O46" t="n">
-        <v>2179.340199382519</v>
+        <v>2179.340199382518</v>
       </c>
       <c r="P46" t="n">
-        <v>2496.057455973197</v>
+        <v>2496.057455973195</v>
       </c>
       <c r="Q46" t="n">
-        <v>2639.297491717215</v>
+        <v>2639.297491717214</v>
       </c>
       <c r="R46" t="n">
-        <v>2596.781734931274</v>
+        <v>2596.781734931273</v>
       </c>
       <c r="S46" t="n">
         <v>2438.456847547834</v>
@@ -7837,7 +7837,7 @@
         <v>2243.385329532432</v>
       </c>
       <c r="U46" t="n">
-        <v>1978.840049838285</v>
+        <v>1978.840049838286</v>
       </c>
       <c r="V46" t="n">
         <v>1748.685508594055</v>
@@ -22544,7 +22544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
@@ -22556,16 +22556,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>17.30754642717471</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>282.3314137529553</v>
+        <v>294.6077643873205</v>
       </c>
       <c r="I2" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -22595,10 +22595,10 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -22607,7 +22607,7 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
@@ -22702,22 +22702,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
-        <v>39.90830244884266</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0</v>
+        <v>23.5491634156416</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -22756,16 +22756,16 @@
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>116.7746692029885</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>286.2118382056129</v>
+        <v>0</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>79.78036786578761</v>
       </c>
       <c r="W4" t="n">
-        <v>0</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
         <v>225.7096553890372</v>
@@ -23413,7 +23413,7 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>114.1584408891657</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>68.29586847696687</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23464,10 +23464,10 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S13" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>217.4054503272961</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23479,10 +23479,10 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>225.7096553890417</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="14">
@@ -23662,16 +23662,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>33.76564955277406</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>81.26583631856948</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23707,16 +23707,16 @@
         <v>0</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>205.6146855105005</v>
       </c>
       <c r="V16" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
       </c>
       <c r="X16" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y16" t="n">
         <v>0</v>
@@ -23890,25 +23890,25 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>142.9753202488375</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>0</v>
+        <v>57.22910392194223</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23941,7 +23941,7 @@
         <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>217.4054503272883</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -23956,7 +23956,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -24130,19 +24130,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>144.5956654067404</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>57.22910392194237</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>104.8770068749567</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856552</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,16 +24409,16 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>66.37524671012166</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S25" t="n">
-        <v>181.0262860016446</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
       </c>
       <c r="U25" t="n">
-        <v>0</v>
+        <v>225.8615017253058</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -24601,13 +24601,13 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
@@ -24616,7 +24616,7 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>118.6564717779744</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>81.26583631856553</v>
@@ -24646,10 +24646,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>66.37524671012169</v>
+        <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>57.229103921942</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,19 +24835,19 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24886,13 +24886,13 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S31" t="n">
-        <v>72.11969353038577</v>
+        <v>0</v>
       </c>
       <c r="T31" t="n">
         <v>0</v>
       </c>
       <c r="U31" t="n">
-        <v>0</v>
+        <v>251.492360717596</v>
       </c>
       <c r="V31" t="n">
         <v>0</v>
@@ -25072,13 +25072,13 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0</v>
+        <v>-2.151612349409311e-13</v>
       </c>
       <c r="C34" t="n">
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>-7.531752999057062e-13</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25321,7 +25321,7 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0</v>
+        <v>-3.126388037344441e-13</v>
       </c>
       <c r="G37" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>998587.6312764994</v>
+        <v>998587.6312764996</v>
       </c>
     </row>
     <row r="3">
@@ -26320,7 +26320,7 @@
         <v>225786.486712678</v>
       </c>
       <c r="E2" t="n">
-        <v>221965.3149147516</v>
+        <v>221965.3149147517</v>
       </c>
       <c r="F2" t="n">
         <v>221965.3149147517</v>
@@ -26335,25 +26335,25 @@
         <v>221965.3149147517</v>
       </c>
       <c r="J2" t="n">
-        <v>221965.3149147517</v>
+        <v>221965.3149147518</v>
       </c>
       <c r="K2" t="n">
         <v>221965.3149147517</v>
       </c>
       <c r="L2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="M2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="N2" t="n">
         <v>225786.4867126781</v>
       </c>
       <c r="O2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
       <c r="P2" t="n">
-        <v>225786.486712678</v>
+        <v>225786.4867126781</v>
       </c>
     </row>
     <row r="3">
@@ -26372,10 +26372,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>325412.4618073551</v>
+        <v>325412.4618073552</v>
       </c>
       <c r="F3" t="n">
-        <v>5.400124791776761e-11</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
         <v>0</v>
@@ -26384,19 +26384,19 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.711553068162175e-10</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>217531.2023972772</v>
+        <v>217531.2023972775</v>
       </c>
       <c r="K3" t="n">
-        <v>5.400124791776761e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>19427.71799363179</v>
+        <v>19427.71799363176</v>
       </c>
       <c r="M3" t="n">
-        <v>85055.02793551184</v>
+        <v>85055.02793551181</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26415,49 +26415,49 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>11387.33216691516</v>
+        <v>11387.33216691518</v>
       </c>
       <c r="C4" t="n">
-        <v>93596.74410405254</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="D4" t="n">
-        <v>93596.74410405252</v>
+        <v>93596.74410405257</v>
       </c>
       <c r="E4" t="n">
-        <v>15436.64000687956</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="F4" t="n">
+        <v>15436.64000687966</v>
+      </c>
+      <c r="G4" t="n">
         <v>15436.64000687967</v>
       </c>
-      <c r="G4" t="n">
-        <v>15436.64000687966</v>
-      </c>
       <c r="H4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="I4" t="n">
         <v>15436.64000687967</v>
       </c>
       <c r="J4" t="n">
-        <v>15436.64000687966</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="K4" t="n">
-        <v>15436.64000687969</v>
+        <v>15436.64000687967</v>
       </c>
       <c r="L4" t="n">
-        <v>23427.4992699732</v>
+        <v>23427.49926997313</v>
       </c>
       <c r="M4" t="n">
+        <v>23427.49926997313</v>
+      </c>
+      <c r="N4" t="n">
+        <v>23427.49926997313</v>
+      </c>
+      <c r="O4" t="n">
+        <v>23427.49926997319</v>
+      </c>
+      <c r="P4" t="n">
         <v>23427.49926997314</v>
-      </c>
-      <c r="N4" t="n">
-        <v>23427.49926997312</v>
-      </c>
-      <c r="O4" t="n">
-        <v>23427.49926997314</v>
-      </c>
-      <c r="P4" t="n">
-        <v>23427.49926997313</v>
       </c>
     </row>
     <row r="5">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1261888.663472147</v>
+        <v>-1262248.746487865</v>
       </c>
       <c r="C6" t="n">
-        <v>24255.80204723218</v>
+        <v>24255.80204723209</v>
       </c>
       <c r="D6" t="n">
-        <v>24255.8020472322</v>
+        <v>24255.80204723211</v>
       </c>
       <c r="E6" t="n">
-        <v>-220006.3167233901</v>
+        <v>-220041.0546488259</v>
       </c>
       <c r="F6" t="n">
-        <v>105406.1450839649</v>
+        <v>105371.4071585292</v>
       </c>
       <c r="G6" t="n">
-        <v>105406.1450839649</v>
+        <v>105371.4071585292</v>
       </c>
       <c r="H6" t="n">
-        <v>105406.1450839649</v>
+        <v>105371.4071585292</v>
       </c>
       <c r="I6" t="n">
-        <v>105406.1450839647</v>
+        <v>105371.4071585292</v>
       </c>
       <c r="J6" t="n">
-        <v>-112125.0573133123</v>
+        <v>-112159.7952387482</v>
       </c>
       <c r="K6" t="n">
-        <v>105406.1450839649</v>
+        <v>105371.4071585292</v>
       </c>
       <c r="L6" t="n">
-        <v>79767.15359515768</v>
+        <v>79767.15359515781</v>
       </c>
       <c r="M6" t="n">
-        <v>14139.84365327767</v>
+        <v>14139.84365327777</v>
       </c>
       <c r="N6" t="n">
-        <v>99194.87158878963</v>
+        <v>99194.87158878954</v>
       </c>
       <c r="O6" t="n">
-        <v>99194.87158878951</v>
+        <v>99194.87158878955</v>
       </c>
       <c r="P6" t="n">
-        <v>99194.87158878948</v>
+        <v>99194.87158878957</v>
       </c>
     </row>
   </sheetData>
@@ -26713,19 +26713,19 @@
         <v>0</v>
       </c>
       <c r="L2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="M2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="N2" t="n">
+        <v>24.2846474920397</v>
+      </c>
+      <c r="O2" t="n">
+        <v>24.28464749203971</v>
+      </c>
+      <c r="P2" t="n">
         <v>24.28464749203973</v>
-      </c>
-      <c r="M2" t="n">
-        <v>24.28464749203973</v>
-      </c>
-      <c r="N2" t="n">
-        <v>24.28464749203968</v>
-      </c>
-      <c r="O2" t="n">
-        <v>24.28464749203975</v>
-      </c>
-      <c r="P2" t="n">
-        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="3">
@@ -26793,7 +26793,7 @@
         <v>831.4014554022926</v>
       </c>
       <c r="D4" t="n">
-        <v>831.4014554022929</v>
+        <v>831.4014554022925</v>
       </c>
       <c r="E4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26932,10 +26932,10 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>0</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>831.4014554022925</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973557</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27169,7 +27169,7 @@
         <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>6.750155989720952e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>341.3068326973555</v>
+        <v>341.3068326973556</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27503,7 +27503,7 @@
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>4.308775558570233e-13</v>
+        <v>0</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -27549,7 +27549,7 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>166.0258082590282</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>144.7550149143208</v>
@@ -27585,16 +27585,16 @@
         <v>88.93215267004733</v>
       </c>
       <c r="S4" t="n">
-        <v>189.7690253314419</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>102.7742800731807</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>286.2118382056129</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>172.3572754580404</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
@@ -27625,16 +27625,16 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
+        <v>0</v>
+      </c>
+      <c r="G5" t="n">
         <v>400</v>
       </c>
-      <c r="G5" t="n">
-        <v>305.2393825482606</v>
-      </c>
       <c r="H5" t="n">
         <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,25 +27664,25 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>109.1877617881758</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>203.9179701396201</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>0</v>
+        <v>311.6796538177921</v>
       </c>
     </row>
     <row r="6">
@@ -27771,10 +27771,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
         <v>0</v>
@@ -27783,16 +27783,16 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>32.77294582383544</v>
       </c>
       <c r="G7" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H7" t="n">
-        <v>37.40453177736417</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>96.35242040983809</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27825,7 +27825,7 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T7" t="n">
-        <v>219.5489492761692</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>286.2118382056129</v>
@@ -27840,7 +27840,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -27853,7 +27853,7 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -27862,7 +27862,7 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -27871,7 +27871,7 @@
         <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>41.57692977292595</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27910,16 +27910,16 @@
         <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>0</v>
+        <v>162.0758417714359</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>111.1950595620238</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,22 +28011,22 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
         <v>166.0258082590282</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>144.7550149143208</v>
       </c>
       <c r="I10" t="n">
         <v>96.35242040983809</v>
@@ -28062,19 +28062,19 @@
         <v>189.7690253314419</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>219.5489492761692</v>
       </c>
       <c r="U10" t="n">
         <v>286.2118382056129</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>155.125757931687</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>36.03748975688606</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28099,7 +28099,7 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
@@ -28311,7 +28311,7 @@
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="Y13" t="n">
         <v>0</v>
@@ -28324,7 +28324,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -28393,7 +28393,7 @@
         <v>0</v>
       </c>
       <c r="Y14" t="n">
-        <v>0</v>
+        <v>1.364242052659392e-12</v>
       </c>
     </row>
     <row r="15">
@@ -28503,13 +28503,13 @@
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>-1.676039100824228e-12</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
       </c>
       <c r="K16" t="n">
-        <v>0</v>
+        <v>-2.241631118489267e-12</v>
       </c>
       <c r="L16" t="n">
         <v>0</v>
@@ -29521,7 +29521,7 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>1.4210854715202e-12</v>
+        <v>0</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y34" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="35">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y37" t="n">
-        <v>24.28464749203973</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="38">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="C40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="D40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="E40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="F40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="G40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="H40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="I40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="J40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="K40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="L40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="M40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="N40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="O40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="P40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Q40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="R40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="S40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="T40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="U40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="V40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="W40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="X40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
       <c r="Y40" t="n">
-        <v>24.28464749203968</v>
+        <v>24.2846474920397</v>
       </c>
     </row>
     <row r="41">
@@ -30475,7 +30475,7 @@
         <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="C43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="D43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="E43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="F43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="G43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="H43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="I43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="J43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="K43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="L43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="M43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="N43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="O43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="P43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Q43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="R43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="S43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="T43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="U43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="V43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="W43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="X43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
       <c r="Y43" t="n">
-        <v>24.28464749203975</v>
+        <v>24.28464749203971</v>
       </c>
     </row>
     <row r="44">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="C46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="D46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="E46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="F46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="G46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="H46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="I46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="J46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="K46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="L46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="M46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="N46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="O46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="P46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Q46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="R46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="S46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="T46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="U46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="V46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="W46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="X46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
       <c r="Y46" t="n">
-        <v>24.28464749203971</v>
+        <v>24.28464749203973</v>
       </c>
     </row>
   </sheetData>
@@ -31622,7 +31622,7 @@
         <v>447.6103584002927</v>
       </c>
       <c r="Q9" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987485</v>
       </c>
       <c r="R9" t="n">
         <v>145.5365940905541</v>
@@ -31835,16 +31835,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I12" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J12" t="n">
-        <v>152.5685698206132</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L12" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M12" t="n">
         <v>745.5466476862121</v>
@@ -31853,13 +31853,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O12" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P12" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q12" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
         <v>145.679503963964</v>
@@ -32078,7 +32078,7 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K15" t="n">
-        <v>173.8200325543357</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L15" t="n">
         <v>638.8832749473072</v>
@@ -32090,7 +32090,7 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O15" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
@@ -32309,16 +32309,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I18" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J18" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
@@ -32327,13 +32327,13 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O18" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P18" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q18" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R18" t="n">
         <v>145.679503963964</v>
@@ -32546,16 +32546,16 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
         <v>745.5466476862121</v>
@@ -32564,16 +32564,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O21" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q21" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R21" t="n">
-        <v>171.4104471179106</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S21" t="n">
         <v>54.65449286742438</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348434</v>
+        <v>5.499398996348433</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817577</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L23" t="n">
-        <v>867.8464071162563</v>
+        <v>867.846407116256</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175677</v>
+        <v>965.6463440175675</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159428</v>
+        <v>981.2715114159425</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460029</v>
+        <v>926.5868626460027</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236508</v>
+        <v>790.8204499236507</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043726</v>
+        <v>345.4516222043725</v>
       </c>
       <c r="S23" t="n">
-        <v>125.3175546292901</v>
+        <v>125.31755462929</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.94243786865945</v>
+        <v>2.942437868659449</v>
       </c>
       <c r="H24" t="n">
-        <v>28.41775520521101</v>
+        <v>28.417755205211</v>
       </c>
       <c r="I24" t="n">
         <v>101.3076196007749</v>
@@ -32789,22 +32789,22 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K24" t="n">
-        <v>475.1391886422586</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L24" t="n">
-        <v>638.8832749473073</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M24" t="n">
-        <v>142.1340339220183</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071786</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437244</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P24" t="n">
-        <v>436.0678650906011</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q24" t="n">
         <v>139.9817740860215</v>
@@ -32813,13 +32813,13 @@
         <v>145.679503963964</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742439</v>
+        <v>54.65449286742438</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275955</v>
+        <v>0.1935814387275954</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.93245966121571</v>
+        <v>21.9324596612157</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869277</v>
+        <v>74.18463860869275</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796262</v>
+        <v>174.4056633796261</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355179</v>
+        <v>286.6020802355178</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588154</v>
+        <v>366.7519890588153</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392046</v>
+        <v>386.6885500392045</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106789</v>
+        <v>377.4939606106788</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515928</v>
+        <v>206.5643005515927</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532767</v>
+        <v>42.99031203532766</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467222</v>
+        <v>0.1345549672467221</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,34 +33020,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K27" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L27" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O27" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q27" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R27" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S27" t="n">
         <v>54.65449286742438</v>
@@ -33178,7 +33178,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I29" t="n">
-        <v>212.0155798067232</v>
+        <v>212.0155798067237</v>
       </c>
       <c r="J29" t="n">
         <v>466.7546155663283</v>
@@ -33494,34 +33494,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I33" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J33" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K33" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M33" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N33" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P33" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q33" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33658,7 +33658,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K35" t="n">
-        <v>699.5441750817581</v>
+        <v>699.5441750817575</v>
       </c>
       <c r="L35" t="n">
         <v>867.846407116256</v>
@@ -33731,34 +33731,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J36" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K36" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L36" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P36" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q36" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R36" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S36" t="n">
         <v>54.65449286742438</v>
@@ -33892,7 +33892,7 @@
         <v>212.0155798067232</v>
       </c>
       <c r="J38" t="n">
-        <v>466.7546155663283</v>
+        <v>466.7546155663288</v>
       </c>
       <c r="K38" t="n">
         <v>699.5441750817575</v>
@@ -33968,34 +33968,34 @@
         <v>28.417755205211</v>
       </c>
       <c r="I39" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J39" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>754.0002396832328</v>
+        <v>765.2790490071785</v>
       </c>
       <c r="O39" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34208,31 +34208,31 @@
         <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>732.4825987614915</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O42" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R42" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S42" t="n">
         <v>54.65449286742438</v>
@@ -34363,7 +34363,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I44" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J44" t="n">
         <v>466.7546155663283</v>
@@ -34442,13 +34442,13 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
         <v>638.8832749473072</v>
@@ -34460,10 +34460,10 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O45" t="n">
-        <v>700.0808204437243</v>
+        <v>398.7616643558013</v>
       </c>
       <c r="P45" t="n">
-        <v>322.8964653704906</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q45" t="n">
         <v>139.9817740860215</v>
@@ -35270,7 +35270,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q9" t="n">
-        <v>159.2338966127272</v>
+        <v>159.233896612727</v>
       </c>
       <c r="R9" t="n">
         <v>0</v>
@@ -35483,16 +35483,16 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J12" t="n">
-        <v>25.73094315394657</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M12" t="n">
         <v>603.4126137641938</v>
@@ -35501,13 +35501,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O12" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P12" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q12" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R12" t="n">
         <v>0</v>
@@ -35726,7 +35726,7 @@
         <v>151.1582247754088</v>
       </c>
       <c r="K15" t="n">
-        <v>35.97859357997668</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
         <v>500.328895167433</v>
@@ -35738,7 +35738,7 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O15" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
@@ -35805,7 +35805,7 @@
         <v>81.04648326295336</v>
       </c>
       <c r="K16" t="n">
-        <v>264.3325884096349</v>
+        <v>264.3325884096304</v>
       </c>
       <c r="L16" t="n">
         <v>394.3420143191314</v>
@@ -35957,16 +35957,16 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J18" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
@@ -35975,13 +35975,13 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O18" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P18" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36194,16 +36194,16 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
         <v>603.4126137641938</v>
@@ -36212,16 +36212,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O21" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q21" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>25.73094315394662</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317284</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.4543240367771</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L23" t="n">
-        <v>632.079992146269</v>
+        <v>632.0799921462688</v>
       </c>
       <c r="M23" t="n">
-        <v>735.300110790295</v>
+        <v>735.3001107902948</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193518</v>
+        <v>751.8584478193516</v>
       </c>
       <c r="O23" t="n">
-        <v>696.4886512243162</v>
+        <v>696.488651224316</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683813</v>
+        <v>559.5874541683811</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902405</v>
+        <v>129.8660843902404</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36431,7 +36431,7 @@
         <v>0</v>
       </c>
       <c r="I24" t="n">
-        <v>1.785239600774929</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J24" t="n">
         <v>151.1582247754088</v>
@@ -36440,19 +36440,19 @@
         <v>337.2977496678996</v>
       </c>
       <c r="L24" t="n">
-        <v>500.3288951674331</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238454</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O24" t="n">
-        <v>557.48457599928</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P24" t="n">
-        <v>302.0934576762708</v>
+        <v>0</v>
       </c>
       <c r="Q24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295342</v>
+        <v>81.04648326295336</v>
       </c>
       <c r="K25" t="n">
-        <v>264.332588409635</v>
+        <v>264.3325884096349</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191315</v>
+        <v>394.3420143191314</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010452</v>
+        <v>426.2724270010451</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060455</v>
+        <v>373.2618997060454</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,34 +36668,34 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K27" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L27" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O27" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S27" t="n">
         <v>0</v>
@@ -36826,7 +36826,7 @@
         <v>0</v>
       </c>
       <c r="I29" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317809</v>
       </c>
       <c r="J29" t="n">
         <v>285.708711039642</v>
@@ -37142,34 +37142,34 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J33" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K33" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M33" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N33" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P33" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q33" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37227,13 +37227,13 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K34" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L34" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M34" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N34" t="n">
         <v>445.9107804819471</v>
@@ -37245,7 +37245,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q34" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,7 +37306,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K35" t="n">
-        <v>479.4543240367776</v>
+        <v>479.454324036777</v>
       </c>
       <c r="L35" t="n">
         <v>632.0799921462688</v>
@@ -37379,34 +37379,34 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J36" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K36" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L36" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P36" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q36" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37482,7 +37482,7 @@
         <v>319.9164207986647</v>
       </c>
       <c r="Q37" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R37" t="n">
         <v>0</v>
@@ -37540,7 +37540,7 @@
         <v>1.539690236317256</v>
       </c>
       <c r="J38" t="n">
-        <v>285.708711039642</v>
+        <v>285.7087110396425</v>
       </c>
       <c r="K38" t="n">
         <v>479.454324036777</v>
@@ -37616,34 +37616,34 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J39" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>622.6585275998996</v>
+        <v>633.9373369238452</v>
       </c>
       <c r="O39" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>105.331130754993</v>
+        <v>105.3311307549931</v>
       </c>
       <c r="K40" t="n">
         <v>288.6172359016746</v>
@@ -37716,7 +37716,7 @@
         <v>397.5465471980851</v>
       </c>
       <c r="P40" t="n">
-        <v>319.9164207986646</v>
+        <v>319.9164207986647</v>
       </c>
       <c r="Q40" t="n">
         <v>144.686904791938</v>
@@ -37856,31 +37856,31 @@
         <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>590.3485648394733</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O42" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37938,25 +37938,25 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K43" t="n">
-        <v>288.6172359016747</v>
+        <v>288.6172359016746</v>
       </c>
       <c r="L43" t="n">
-        <v>418.6266618111712</v>
+        <v>418.6266618111711</v>
       </c>
       <c r="M43" t="n">
-        <v>450.5570744930849</v>
+        <v>450.5570744930848</v>
       </c>
       <c r="N43" t="n">
-        <v>445.9107804819472</v>
+        <v>445.9107804819471</v>
       </c>
       <c r="O43" t="n">
-        <v>397.5465471980852</v>
+        <v>397.5465471980851</v>
       </c>
       <c r="P43" t="n">
         <v>319.9164207986647</v>
       </c>
       <c r="Q43" t="n">
-        <v>144.6869047919381</v>
+        <v>144.686904791938</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38011,7 +38011,7 @@
         <v>0</v>
       </c>
       <c r="I44" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J44" t="n">
         <v>285.708711039642</v>
@@ -38090,13 +38090,13 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
         <v>500.328895167433</v>
@@ -38108,10 +38108,10 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O45" t="n">
-        <v>557.4845759992799</v>
+        <v>256.1654199113569</v>
       </c>
       <c r="P45" t="n">
-        <v>188.9220579561604</v>
+        <v>0</v>
       </c>
       <c r="Q45" t="n">
         <v>0</v>
@@ -38175,10 +38175,10 @@
         <v>105.3311307549931</v>
       </c>
       <c r="K46" t="n">
-        <v>288.6172359016746</v>
+        <v>288.6172359016747</v>
       </c>
       <c r="L46" t="n">
-        <v>418.6266618111711</v>
+        <v>418.6266618111712</v>
       </c>
       <c r="M46" t="n">
         <v>450.5570744930848</v>
